--- a/Guanyue/自动转换模板.xlsx
+++ b/Guanyue/自动转换模板.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\Guanyue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D04BFE-0555-43D7-9BEA-59A4AC7E5D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4FB650-ECFC-4A0D-96B6-F7C6A97C9326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="海外专家模板" sheetId="1" r:id="rId1"/>
-    <sheet name="Es Devlin 合作名单" sheetId="3" r:id="rId2"/>
+    <sheet name="Kiwi Anna Backup" sheetId="4" r:id="rId2"/>
+    <sheet name="Es Devlin 合作名单" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">海外专家模板!$A$1:$S$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">海外专家模板!$A$1:$Q$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="646">
   <si>
     <t>surname</t>
   </si>
@@ -1344,13 +1345,660 @@
   </si>
   <si>
     <t>Studios</t>
+  </si>
+  <si>
+    <t>http://www.jtrooneymedia.com/credits</t>
+  </si>
+  <si>
+    <t>J.T</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>Kanye west, Katy Perry, Super Bowl XLIX Halftime Show with Katy Perry,Taylor Swift 1989 World Tour,U2 iNNOCENCE + eXPERIENCE Tour 2015,2015 Emmy's,Katy Perry Grammys Performance 2017,Bruno Mars 24K Magic World Tour,P!NK 2017 Summer Festival Tour,Taylor Swift 2017 Jingle Ball Tour,Taylor Swift reputation Stadium Tour,Super Bowl LIII Halftime Show with Maroon 5, Travis Scott Guest Performance,Katy Perry Performance, American Idol Finale,</t>
+  </si>
+  <si>
+    <t>是sps的人，专门做XR的，做过的都是大项目</t>
+  </si>
+  <si>
+    <t>Tour and Concert, TV Variety Show, TV Musical Show</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>AR VR XR</t>
+  </si>
+  <si>
+    <t>Aucoin</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>celine dion, Iron Maiden</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/yves-aucoin-b7052691</t>
+  </si>
+  <si>
+    <t>应该是法国人，做过celine dion的一些秀, 他自己的公司叫aucoin design</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/charles-ethier-78b16199/</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Ethier</t>
+  </si>
+  <si>
+    <t>celine dion</t>
+  </si>
+  <si>
+    <t>SPS 官网上面看到的，是合作过的, 他们的定义是production manager，没有自己的官网，只有linked in 和facebook，应该是自由职业者</t>
+  </si>
+  <si>
+    <t>http://www.christophecollette.com/</t>
+  </si>
+  <si>
+    <t>Collette</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Director Of Photography</t>
+  </si>
+  <si>
+    <t>TUMI, Samsung, Adidas, Xbox one</t>
+  </si>
+  <si>
+    <t>拍照也摄像，和sps合作过, 做的commercial 要比娱乐节目多</t>
+  </si>
+  <si>
+    <t>Tour and Concert, Commercial, Film</t>
+  </si>
+  <si>
+    <t>Hidden Road</t>
+  </si>
+  <si>
+    <t>https://www.hiddenroadstudios.com/</t>
+  </si>
+  <si>
+    <t>做过的还挺多的，蛮大牌的，</t>
+  </si>
+  <si>
+    <t>America got Talent, BET Award, Calvin Harris, Doja cat, Coldplay, Google, Gun'n roses, Jonas Brothers, Katy Perry, Metallica, Muse, MTV, Kids choice award, shawn mendes, usher,</t>
+  </si>
+  <si>
+    <t>https://www.eltorostudio.com/en/</t>
+  </si>
+  <si>
+    <t>El Toro</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>Ubisoft, Radio Canada</t>
+  </si>
+  <si>
+    <t>加拿大讲法语的studio，做投影的项目还蛮多的，但是项目都不是大型电视节目，比较文艺.也做 branding 和 commercial</t>
+  </si>
+  <si>
+    <t>TV Variety Show, commercial</t>
+  </si>
+  <si>
+    <t>INFO@ELTOROSTUDIO.COM</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Anthony_Mandler</t>
+  </si>
+  <si>
+    <t>Mandler</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Show Director</t>
+  </si>
+  <si>
+    <t>Commercial, Music Video</t>
+  </si>
+  <si>
+    <t>比较有名，和rihanna合作很多，有自己的wikipedia 网页，以前和大牌合作摄影，后来主要拍摄mv为主，做的电视节目不多</t>
+  </si>
+  <si>
+    <r>
+      <t>Spice Girls, Jay Z, Beyoncé, Eminem, Usher, Shakira, Taylor Swift, The Killers, Selena Gomez, Justin Bieber, Christina Aguilera, 50 Cent, Ne-Yo, Nicki Minaj, Drake, Snoop Dogg, Lenny Kravitz, Cheryl Cole, M.I.A., Mary J. Blige, fun. and Lana Del Rey.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2].  Entertainment Weekly, GQ, Esquire, Men's Health, and ESPN The Magazine. His celebrity portraits include, among others, David Beckham, Colin Farrell, James Franco, Heath Ledger, Ryan Phillippe, Eva Mendes, LeBron James, Taylor Lautner, Andrew Garfield, Kiefer Sutherland and Katie Holmes.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jesse-lee-stout-51406438/</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Lee Stout</t>
+  </si>
+  <si>
+    <t>Creative Director</t>
+  </si>
+  <si>
+    <t>以前在metaform，现在专门为muse 做创意和他们合作比较紧密，链接linked in 里有他的详细简历，有7年creative director 经验</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>Sooner</t>
+  </si>
+  <si>
+    <t>Routhier</t>
+  </si>
+  <si>
+    <t>Show Producer</t>
+  </si>
+  <si>
+    <t>http://sraeproductions.com/client-list</t>
+  </si>
+  <si>
+    <t>这个人又做灯光，又做creative，好像做的比较全能, 她官网上自己也说比较全能</t>
+  </si>
+  <si>
+    <t>KISS, Muse,Nicki Minaj, Disturbed, Rihanna, Kid Rock,</t>
+  </si>
+  <si>
+    <t>https://www.er-productions.com/about</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Backstreet boys, Kylie Minogue, katy perry, muse, queen, America got Talent, Metallica, Brit Award, The Voice</t>
+  </si>
+  <si>
+    <t>info@er-productions.com</t>
+  </si>
+  <si>
+    <t>他们是专门做激光设计的，应该也提供设备,暂时算灯光一起, 做过的秀名气还蛮大的，他们在英国，美国，西班牙，澳大利亚都有office</t>
+  </si>
+  <si>
+    <t>http://frame48.com/work/</t>
+  </si>
+  <si>
+    <t>Frame48</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>主要是做mv，commercial和film，不做电视娱乐歌舞类节目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>coca cola, muse, sean paul,</t>
+  </si>
+  <si>
+    <t>Post Production</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Lighting Director</t>
+  </si>
+  <si>
+    <t>http://luminescencellc.com/</t>
+  </si>
+  <si>
+    <t>他公司叫 luminescence LLC，和sps合作过项目，他也会做programming，但是做过的项目都不是很有名</t>
+  </si>
+  <si>
+    <t>aaronDLuke@gmail.com</t>
+  </si>
+  <si>
+    <t>13 Management</t>
+  </si>
+  <si>
+    <t>Taylor Swift 的management 公司，应该只做他们自己的艺人</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>http://13management.com/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arthur-kemish-80453856/</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Kemish</t>
+  </si>
+  <si>
+    <t>自由职业者，和sps合作过taylor swift的项目，其他信息不多</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>http://www.brooklyntalentmanagement.com/ericwade</t>
+  </si>
+  <si>
+    <t>info@brooklyntalentmanagement.com</t>
+  </si>
+  <si>
+    <t>他的公司叫 crossfade design, 信息比较少，人看上去比较老</t>
+  </si>
+  <si>
+    <t>Choreographer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ericmarchwinski/</t>
+  </si>
+  <si>
+    <t>他公司叫early bird visual, 但是网上没有信息，而且他之前都是programmer起家，所以暂时把他定位成programmer</t>
+  </si>
+  <si>
+    <t>https://www.striveforbrightness.com/</t>
+  </si>
+  <si>
+    <t>Jay Weddell</t>
+  </si>
+  <si>
+    <t>Needtobreath</t>
+  </si>
+  <si>
+    <t>网站上很多节目没有标注名字，只有图片，所以猜不出来，只知道和sps合作过，其他网站上的节目看上去都不是很有名</t>
+  </si>
+  <si>
+    <t>https://shelbycarol.com/</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Linkin Park 2017, Volbeat</t>
+  </si>
+  <si>
+    <t>做过的节目里只有Linkin Park比较有名。做dop也做photographer</t>
+  </si>
+  <si>
+    <t>https://baillat.ca/category/video</t>
+  </si>
+  <si>
+    <t>Bailat</t>
+  </si>
+  <si>
+    <t>Cirque du soleil，45 Degrees， Redbull</t>
+  </si>
+  <si>
+    <t>是一个加拿大的视觉公司，和sps合作过，很有自己的风格，但是做过的项目不是很有名，是一个有潜力的公司，作品偏文艺和艺术。他们的service 很多，从视觉到设计，到安装都有。有机会的话可以强力推荐这家公司！</t>
+  </si>
+  <si>
+    <t>www.fireplay.com</t>
+  </si>
+  <si>
+    <t>Superbowl with Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Kirshner</t>
+  </si>
+  <si>
+    <t>24x emmy nomination， 其中 9 emmy award</t>
+  </si>
+  <si>
+    <t>24x emmy Award nomination，其中赢了9个. 因为从2007年到2020年的超级碗都是他做的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superbowl Halftime show 2007-2020, The Daytime Emmy Awards,The Vibe Awards – UPN,NFL Opening Kickoff,MLB All-Star Game &amp; Home Run Derby,TONY Awards ,Democratic National Convention </t>
+  </si>
+  <si>
+    <t>http://kirshnerevents.com/bio-credits</t>
+  </si>
+  <si>
+    <t>Tour and Concert, Exhibition and Corperate</t>
+  </si>
+  <si>
+    <t>Rudzinski</t>
+  </si>
+  <si>
+    <t>这个人有意思，是美国人，但是很早就去德国电视台sat1工作，然后获得过3个emmy award，做过一些还算有名的秀，可以重点关注</t>
+  </si>
+  <si>
+    <t>6 emmy nominations, 3 won</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/name/nm1541136/</t>
+  </si>
+  <si>
+    <t>2020 Billboard music Awards, World of Dance, 2019 MTV music Awards, thirdy seconds to mars</t>
+  </si>
+  <si>
+    <t>https://msaagency.com/portfolio/daniel-ezralow/</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>EZRALOW</t>
+  </si>
+  <si>
+    <t>和Es devlin做过 Katy perry 演唱会，</t>
+  </si>
+  <si>
+    <t>Tour and Concert, TV Variety Show, TV Musical Show, Film, Theater</t>
+  </si>
+  <si>
+    <t>Katy Perry, 2015 Socchi, Ricky Martin, Beatles Songbook, Brit Awards, Grammy Awards, Academy Awards</t>
+  </si>
+  <si>
+    <t>https://www.traskhouse.com/</t>
+  </si>
+  <si>
+    <t>Traskhouse</t>
+  </si>
+  <si>
+    <t>Kanye west, Travis Scott, Kim Kadashian,Calvin Harris,Daft Punk, Eminem, 30 Seconds to Mars</t>
+  </si>
+  <si>
+    <t>老板叫 John Mcguire。主要做kanye west和他老婆kk的内容。他们的服务应该比较全方面，从设计到搭建，到执行。做过的艺人都是比较大牌的，可以用在大项目上</t>
+  </si>
+  <si>
+    <t>http://www.marckalman.com/branding</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Kalman</t>
+  </si>
+  <si>
+    <t>网站风格很文艺，做的秀算大的，和sps合作过，但是数量很少，所以吃不准</t>
+  </si>
+  <si>
+    <t>Music Video</t>
+  </si>
+  <si>
+    <t>Travis Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>http://www.csmithlighting.com/about-lumen-design.html</t>
+  </si>
+  <si>
+    <t>Commercial, Music Video, TV and Concert, TV Variety Show</t>
+  </si>
+  <si>
+    <t>apple homepod commercials,2019 Pentatonix World Tour, Mariaha Carrey, Shawn Mendes, 2018 Muse Music Video, Jennifer Lopez, Zalando Fashion, 2017 Pink!, 2017 Kesha, 2016 Sia, 2016 The Smashing Pumpkins, 2015 Nick Jonas</t>
+  </si>
+  <si>
+    <t>他公司叫Lumen Design,他做 lighting design， director， programmer. 做过的项目算多的，也算大的，都是比较有名的美国当红艺人，网站也做的很漂亮，整体来说适合推荐给国内客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele </t>
+  </si>
+  <si>
+    <t>Finzi Pasca</t>
+  </si>
+  <si>
+    <t>一个瑞士人，主要做theater，但是也会做户外大型节目，和cirque du soleil做过很多项目</t>
+  </si>
+  <si>
+    <t>https://finzipasca.com/en/compagnia/team/daniele-finzi-pasca/</t>
+  </si>
+  <si>
+    <t>cirque du soleil, Socci Olympic Games Opening and Closing, Turing Olympic Games Closing,</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Neville</t>
+  </si>
+  <si>
+    <t>https://mandylights.com/portfolio/concert/</t>
+  </si>
+  <si>
+    <t>Ricky Martin, Good Charlotte, Backstreet Boys, Robbie Williams, Enter Shikari</t>
+  </si>
+  <si>
+    <t>他的公司叫 Mandy Lights， 基本上什么都做，从户外装置，到commercial，到电视，到灯光艺术装置，到corporate event。和电视节目或者演唱会相关的业绩也还算多的，有些是打牌的比如robbie williams。人也比较年轻，不是老头，可以尝试推荐给客户</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Rafie</t>
+  </si>
+  <si>
+    <t>https://www.brunorafie.com/</t>
+  </si>
+  <si>
+    <t>Cirque Du Soleil</t>
+  </si>
+  <si>
+    <t>Theater, TV Variety Show</t>
+  </si>
+  <si>
+    <t>应该是法国人，他公司叫concepteuer Lumiere， 项目做得很多, 但是大部分都是 circue du soleil 和theater，没有电视节目</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/name/nm0288067/</t>
+  </si>
+  <si>
+    <t>他公司叫 Light and Fantastic Company, 官网是空白的，只有他的联系方式，linked in 上面有更多，imdb上也有很多做过的节目，但是都不是很有名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy </t>
+  </si>
+  <si>
+    <t>Tinkham</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwiN4-rQ3szsAhXSCewKHXenBo0QFjAAegQIARAC&amp;url=https%3A%2F%2Fwww.amytinkham.com%2F&amp;usg=AOvVaw3tZx6krV_4X8T_hLYkuLrL</t>
+  </si>
+  <si>
+    <t>在无锡搞过剧场设计</t>
+  </si>
+  <si>
+    <t>Paul  McCartney Tour, Dubai Royal Wedding, ABC Disneyland Special, Madonna Brit Awards</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Whitehouse</t>
+  </si>
+  <si>
+    <t>他公司叫fireplay，做过superbowl，但是网站打不开，所以不知道还有什么其他的节目</t>
+  </si>
+  <si>
+    <t>Barancik</t>
+  </si>
+  <si>
+    <t>https://luxious.com/</t>
+  </si>
+  <si>
+    <t>TV Variety Show, Tour and Concert</t>
+  </si>
+  <si>
+    <t>Taylor Swift,Cardi B, Alica Keys, Lenny Kravitz, Gwen Stefani, Toyota Launch</t>
+  </si>
+  <si>
+    <t>TV Variety Show, Tour and Concert, Exhibition and Coroporate</t>
+  </si>
+  <si>
+    <t>他公司叫luxious creative， 做过 taylorswift 的 tour 和 SPS 合作过， 做过的项目也算都是当红艺人，这个人比较难找，可能知道的人不多，可以和中国客户推荐</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/name/nm1085959/</t>
+  </si>
+  <si>
+    <t>Lodge</t>
+  </si>
+  <si>
+    <t>Sam Smith, Billboard Music Awards,2015 MTV music Awards, 2015 MTV Video Music Awards, iheart Ratio Music Awards, 2015 the Oscars, One Direction, 2014 MTV Music Video awards, Robbie Williams, 2007 Victorias Secet Show, 2003 Coldplay,</t>
+  </si>
+  <si>
+    <t>Five Current</t>
+  </si>
+  <si>
+    <t>https://fivecurrents.com/</t>
+  </si>
+  <si>
+    <t>2015 Baku European Games Opening , United Arab National day, Clinton Global Citizen Awards, Superbowl Saturday Night, LA 2015 Special Olympics Ceremony, Socci 2014, London 2012, Copa America, 2016 Rio Olympic Emblem Launch, Disneyland 50th Anniversal.</t>
+  </si>
+  <si>
+    <t>这个公司做过很多大型户外活动。主要以户外为主，可以向客户推荐。但是网上具体没有说他们到底是干什么的，只知道他们是producer</t>
+  </si>
+  <si>
+    <t>Hadley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Grammy Awards,Cirque du Soleil,European Games 2015 Closing Ceremony
+</t>
+  </si>
+  <si>
+    <t>做过一些节目，但是都不是顶级的节目，也不是很多，总体来说不是很大牌</t>
+  </si>
+  <si>
+    <t>https://msaagency.com/portfolio/james-hadley/</t>
+  </si>
+  <si>
+    <t>http://la.blocagency.com/talent/choreography/christopher-scott</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>3x Emmy Award nomination</t>
+  </si>
+  <si>
+    <t>Film, TV Variety Show</t>
+  </si>
+  <si>
+    <t>AMA Taylor Swift, AMA Selena Gomez 2015, Now you see me 2, So you think you can dance, Step Up, Step Up Revolution, Conan</t>
+  </si>
+  <si>
+    <t>做过的项目蛮多的，主要以电影为主，有三次艾美奖提名, 是Bloc AGENCY的</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>https://www.dickclark.com/</t>
+  </si>
+  <si>
+    <t>American Music Awards, Billboard Music Award,Golden Globe Awards, Streamy Awards, So you think you can dance,</t>
+  </si>
+  <si>
+    <t>TV Variety Show, TV Musical Show</t>
+  </si>
+  <si>
+    <t>Clark Production</t>
+  </si>
+  <si>
+    <t>这个是一个美国很大的制作公司，1986 他公司就在美国纳斯达克上市，他们制作过一些很有名的大型节目,不知道会不会帮中国公司做创意</t>
+  </si>
+  <si>
+    <t>Nol</t>
+  </si>
+  <si>
+    <t>Van Genuchten</t>
+  </si>
+  <si>
+    <t>https://www.proluxon.com/en/#bio</t>
+  </si>
+  <si>
+    <t>30 Seconds to Mars, Cirque du soleil at eurovision and Oscars,</t>
+  </si>
+  <si>
+    <t>Theater, TV Variety Show, TV Musical Show</t>
+  </si>
+  <si>
+    <t>他公司叫 Proluxon，不是很确定。做点事节目比较少，做一些户外投影节目之类的，但是应该不太适合国内</t>
+  </si>
+  <si>
+    <t>这个人的imdb页面上做过很多大型节目，但是没有自己的网站和公司，起码找不到。如果很想推荐他的话，可以买一个imdb pro 然后联系他的agent. 有可能是stuffish的人，因为和他们一起做过一些节目。可以向客户推荐的</t>
+  </si>
+  <si>
+    <t>Brit Award，Grammy Award,coldplay, Ed Sheren VH1, Superbowl 50, BBC Awards, X Factors Final， MTV World Stage 2018, Black Eyed Peace, Shakria, Die Toten Hosen, One Direction.</t>
+  </si>
+  <si>
+    <t>做过的节目都挺大的，其中包括超级碗，但是不知道为什么网站看起来很老. 没有他的联系方式，只能在网站上填表格联系他。</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/william-baker-149bb624/</t>
+  </si>
+  <si>
+    <t>Creatie Director</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>做过很多秀，自己有两个公司，但是公司官网看上去都很奇怪，所以信息不太准</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,13 +2011,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1388,6 +2036,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1418,7 +2105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,10 +2130,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1459,6 +2164,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ember63" descr="Charles Ethier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6598EDB5-6E07-4CDD-8A0B-2BCE7EC57029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2813050"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,10 +2490,1574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="2" width="9.58984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.76953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.31640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.58984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.58984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.04296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.08984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.2265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="42.90625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.40625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="162.25">
+      <c r="A2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="29.5">
+      <c r="A3" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="103.25">
+      <c r="A4" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="44.25">
+      <c r="A5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="29.5">
+      <c r="A6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="73.75">
+      <c r="A7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="73.75">
+      <c r="A8" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="88.5">
+      <c r="A9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="44.25">
+      <c r="A10" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="88.5">
+      <c r="A11" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="29.5">
+      <c r="A12" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="59">
+      <c r="A13" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="44.25">
+      <c r="A14" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="44.25">
+      <c r="A15" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="44.25">
+      <c r="A16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="73.75">
+      <c r="A17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="73.75">
+      <c r="A18" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="44.25">
+      <c r="A19" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="132.75">
+      <c r="A20" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="44.25">
+      <c r="A21" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="73.75">
+      <c r="A22" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" ht="73.75">
+      <c r="A23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="44.25">
+      <c r="A24" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="103.25">
+      <c r="A25" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" ht="44.25">
+      <c r="A26" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="118">
+      <c r="A27" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="59">
+      <c r="A28" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="162.25">
+      <c r="A29" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" ht="88.5">
+      <c r="A30" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="103.25">
+      <c r="A31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="103.25">
+      <c r="A33" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="132.75">
+      <c r="A34" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" ht="88.5">
+      <c r="A35" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="44.25">
+      <c r="A36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="44.25">
+      <c r="A37" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" ht="88.5">
+      <c r="A38" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="I38" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="73.75">
+      <c r="A39" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" ht="73.75">
+      <c r="A40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="44.25">
+      <c r="A41" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="C42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="C43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="C44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="L45" s="2"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="C46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="C47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="C48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="L49" s="2"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="L50" s="2"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N7" r:id="rId1" display="mailto:info@eltorostudio.com" xr:uid="{C7D35AA3-0995-481C-AA18-E3EB942AB322}"/>
+    <hyperlink ref="N11" r:id="rId2" display="mailto:info@er-productions.com" xr:uid="{9D6D4DF2-16B5-4C1C-8DCA-23EC7C0244BE}"/>
+    <hyperlink ref="N13" r:id="rId3" xr:uid="{421E8CB0-4F99-49FA-B3B9-8ACFBC3DC8D9}"/>
+    <hyperlink ref="N16" r:id="rId4" display="http://info@brooklyntalentmanagement.com" xr:uid="{D118BA5F-C311-4F08-B58B-81CF29C24EAD}"/>
+    <hyperlink ref="M21" r:id="rId5" xr:uid="{56061949-1758-471B-9C2A-68D64DE0316D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F26E50-394E-43C6-8139-59B7D899305B}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75"/>
@@ -1955,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="44.25">
+    <row r="5" spans="1:19" ht="29.5">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -4035,93 +6370,91 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId2" tooltip="https://soonerrae.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M6" r:id="rId8" tooltip="mailto:david@misakyan.com" display="david@misakyan.com_x000a_https://www.instagram.com/antisthenes/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L22" r:id="rId30" tooltip="http://www.giovannipinna.com/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M24" r:id="rId34" display="doejohn@gmail.com_x000a_info@crossfadedesign.com" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M25" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M26" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L27" r:id="rId38" tooltip="http://www.lite-alt-design.com/" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M27" r:id="rId39" tooltip="http://www.lite-alt-design.com/contact" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M28" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L30" r:id="rId41" tooltip="http://www.afglighting.com/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M30" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L31" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L32" r:id="rId44" tooltip="https://www.nyxdesign.com/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M32" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L33" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L34" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L35" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L29" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L36" r:id="rId52" tooltip="http://www.markrizzo.com/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L40" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L43" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="L44" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L45" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="L46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="L48" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L49" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M50" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L50" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="L51" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="L54" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L52" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M52" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L53" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M22" r:id="rId72" xr:uid="{5B5024E3-2A2C-4664-9351-4C80FE61B6B0}"/>
-    <hyperlink ref="L28" r:id="rId73" xr:uid="{A80BEA58-6C1D-4AE6-A697-44732498D949}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{E8D52185-DD54-4706-9AA4-D056CF3DCEEB}"/>
+    <hyperlink ref="L3" r:id="rId2" tooltip="https://soonerrae.com/" xr:uid="{AFEC4FC2-24EF-4B4A-8DBF-F332B6C6D943}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{F9126CF4-0D58-43F2-B10E-444665402BD7}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{92977DC6-FABE-42F0-92D8-E44AAB29920A}"/>
+    <hyperlink ref="M2" r:id="rId5" xr:uid="{CBD55DC2-782E-4E5D-BDB0-4A6FC92CC920}"/>
+    <hyperlink ref="M3" r:id="rId6" xr:uid="{7279661D-10EE-4B36-BDF7-37DAF242CB61}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{A34C0AE7-FE7A-4B8C-A97D-1FF24E5CB49F}"/>
+    <hyperlink ref="M6" r:id="rId8" tooltip="mailto:david@misakyan.com" display="david@misakyan.com_x000a_https://www.instagram.com/antisthenes/" xr:uid="{46D5D5A2-EE36-492F-BB59-BFCB0C4308B6}"/>
+    <hyperlink ref="L8" r:id="rId9" xr:uid="{E405E8F9-7C8F-4442-B69A-6E592C7F9279}"/>
+    <hyperlink ref="L9" r:id="rId10" xr:uid="{5B913713-11AE-4BCB-AE95-E2D4EDF68125}"/>
+    <hyperlink ref="L10" r:id="rId11" xr:uid="{926BB444-5D3B-4293-9F2C-674F6D173FB2}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{F3FA9D8F-03A5-43A1-9EF2-9E36AD73B31C}"/>
+    <hyperlink ref="L12" r:id="rId13" xr:uid="{D7D15445-F54A-480F-9368-A343A943DCFA}"/>
+    <hyperlink ref="M12" r:id="rId14" xr:uid="{0058DCED-7FEE-464E-82D3-6A995E112D8D}"/>
+    <hyperlink ref="L13" r:id="rId15" xr:uid="{DF6A1CD5-8420-4B8F-A808-55B7EA505E2B}"/>
+    <hyperlink ref="M13" r:id="rId16" xr:uid="{38BE66A6-E8AD-4606-95D3-789CA7C4DA08}"/>
+    <hyperlink ref="L14" r:id="rId17" xr:uid="{9927CE86-AFE5-4D18-B1FF-980D31F68A89}"/>
+    <hyperlink ref="M14" r:id="rId18" xr:uid="{DD6C544E-418F-44ED-851D-A3443EE9AF19}"/>
+    <hyperlink ref="L15" r:id="rId19" xr:uid="{00964219-5935-49AF-AC00-867F9012A3B6}"/>
+    <hyperlink ref="M15" r:id="rId20" xr:uid="{76E65EC5-D940-483F-AC17-868AC5CA60B4}"/>
+    <hyperlink ref="L16" r:id="rId21" xr:uid="{C901571C-CDE4-411C-8C7B-E110C3DD740D}"/>
+    <hyperlink ref="M16" r:id="rId22" xr:uid="{E05D1081-05FC-45F6-A960-600FB97E24B1}"/>
+    <hyperlink ref="L18" r:id="rId23" xr:uid="{D904024C-069B-40B7-AFD9-96D63BE592C7}"/>
+    <hyperlink ref="M18" r:id="rId24" xr:uid="{C7107789-9264-4FAE-B0C3-EC2139082108}"/>
+    <hyperlink ref="M19" r:id="rId25" xr:uid="{384BC57D-0A8B-4D49-9D19-BF5B023E5192}"/>
+    <hyperlink ref="L19" r:id="rId26" xr:uid="{7317D9E4-8411-4169-9081-ED7ECB30DEB7}"/>
+    <hyperlink ref="L20" r:id="rId27" xr:uid="{E79EDF7A-C62F-4FC4-BADB-CD8554A2A3B2}"/>
+    <hyperlink ref="M20" r:id="rId28" xr:uid="{00A1359C-0661-456D-A93C-AD795A89AF46}"/>
+    <hyperlink ref="L21" r:id="rId29" xr:uid="{8D47A9E3-666F-4FE5-BCAF-F2D3A83B723D}"/>
+    <hyperlink ref="L22" r:id="rId30" tooltip="http://www.giovannipinna.com/" xr:uid="{1284A68E-3CDC-4439-881D-2E510D087D73}"/>
+    <hyperlink ref="L23" r:id="rId31" xr:uid="{75677CCA-A6A3-4B3C-A697-81E1E7F1D8A5}"/>
+    <hyperlink ref="M23" r:id="rId32" xr:uid="{7A094BAD-B465-4830-ABD4-C2ECEB0D5A67}"/>
+    <hyperlink ref="L24" r:id="rId33" xr:uid="{CBA44665-836C-49F4-AB21-B7AE3C17997A}"/>
+    <hyperlink ref="M24" r:id="rId34" display="doejohn@gmail.com_x000a_info@crossfadedesign.com" xr:uid="{D247F881-7A8C-4A75-8F78-E84282F6D1A0}"/>
+    <hyperlink ref="M25" r:id="rId35" xr:uid="{388796AC-1D89-4877-9EA2-9596833AA122}"/>
+    <hyperlink ref="L26" r:id="rId36" xr:uid="{453CD019-87B0-4D56-9352-5BB28B1030DA}"/>
+    <hyperlink ref="M26" r:id="rId37" xr:uid="{9F20EB38-AF25-477A-8E2E-60F57F37E0E7}"/>
+    <hyperlink ref="L27" r:id="rId38" tooltip="http://www.lite-alt-design.com/" xr:uid="{76319555-C6E2-4FB9-8704-82DA8A3BA9FD}"/>
+    <hyperlink ref="M27" r:id="rId39" tooltip="http://www.lite-alt-design.com/contact" xr:uid="{CC567F4D-36D2-4647-93C4-667E7A716597}"/>
+    <hyperlink ref="M28" r:id="rId40" xr:uid="{F771E10A-4FEC-4771-B1BF-8D4B0CA89488}"/>
+    <hyperlink ref="L30" r:id="rId41" tooltip="http://www.afglighting.com/" xr:uid="{E28BD201-96E8-4B57-B478-55AFF9780459}"/>
+    <hyperlink ref="M30" r:id="rId42" xr:uid="{9242CA18-6560-4B3E-AEC1-9D78E3406F0A}"/>
+    <hyperlink ref="L31" r:id="rId43" xr:uid="{67C7004C-3876-4886-9CF3-D3BB71821F9D}"/>
+    <hyperlink ref="L32" r:id="rId44" tooltip="https://www.nyxdesign.com/" xr:uid="{BB00C520-35ED-4830-9881-5E6336C8467A}"/>
+    <hyperlink ref="M32" r:id="rId45" xr:uid="{5D307EE6-5E7B-4E35-88BF-4504C72C7AB6}"/>
+    <hyperlink ref="L33" r:id="rId46" xr:uid="{A4D89F1A-5848-456D-8F1D-31A6E2B481B4}"/>
+    <hyperlink ref="L34" r:id="rId47" xr:uid="{440A209C-86AE-40EF-B401-B54471EEA9C5}"/>
+    <hyperlink ref="L35" r:id="rId48" xr:uid="{34242E3A-205C-4B9F-9914-610B516C95F1}"/>
+    <hyperlink ref="L29" r:id="rId49" xr:uid="{79BB4FBE-12F5-480E-852C-C5CBDBF1AC2A}"/>
+    <hyperlink ref="M29" r:id="rId50" xr:uid="{ACA7D6BD-CFCF-47F2-BDB9-82E014CA6D25}"/>
+    <hyperlink ref="M35" r:id="rId51" xr:uid="{48A9AB28-B581-4056-A2DE-6B181E95BAFB}"/>
+    <hyperlink ref="L36" r:id="rId52" tooltip="http://www.markrizzo.com/" xr:uid="{4135157A-3A43-44F2-AE08-10B58C94969E}"/>
+    <hyperlink ref="M37" r:id="rId53" xr:uid="{FA0AD57C-6127-41AE-8170-DDDA93353416}"/>
+    <hyperlink ref="M39" r:id="rId54" xr:uid="{157133AC-B3AA-4599-822C-01F528AE8307}"/>
+    <hyperlink ref="L40" r:id="rId55" xr:uid="{121D34C7-2E45-4BDC-92FD-281E77B0A32F}"/>
+    <hyperlink ref="L42" r:id="rId56" xr:uid="{ED59EDCB-B7B9-4ACC-8ABB-9BECF5916B7C}"/>
+    <hyperlink ref="L43" r:id="rId57" xr:uid="{AAFB765F-FA7B-45D1-BE6F-FD163D42E341}"/>
+    <hyperlink ref="L41" r:id="rId58" xr:uid="{B8CEAB6A-60A7-4CEE-B7FF-4CD3840EA8AB}"/>
+    <hyperlink ref="L44" r:id="rId59" xr:uid="{DC552A85-22CB-4BEB-87D6-621FBA31AAC8}"/>
+    <hyperlink ref="L45" r:id="rId60" xr:uid="{E800CCC3-CA3D-4D94-B127-0E80A47FAB10}"/>
+    <hyperlink ref="L46" r:id="rId61" xr:uid="{A22B4D21-DF62-4CD7-AFA4-4768E05FD55E}"/>
+    <hyperlink ref="L47" r:id="rId62" xr:uid="{2A11100C-37A3-439E-94C6-5FAE36053659}"/>
+    <hyperlink ref="L48" r:id="rId63" xr:uid="{59D2BB62-A2AC-47D8-A178-1CEB50914B7F}"/>
+    <hyperlink ref="L49" r:id="rId64" xr:uid="{CF49DC19-E6B0-457B-A4DD-439377504035}"/>
+    <hyperlink ref="M50" r:id="rId65" xr:uid="{6F9C0586-E8D2-43AF-8E5C-F7B378A77C17}"/>
+    <hyperlink ref="L50" r:id="rId66" xr:uid="{360EB710-6FE3-4390-BCAD-AA3A5CC700D3}"/>
+    <hyperlink ref="L51" r:id="rId67" xr:uid="{32E6A3FF-9BEC-40E7-B385-571762AC1D03}"/>
+    <hyperlink ref="L54" r:id="rId68" xr:uid="{405BCEE3-6C68-468F-8371-71D98FB242FB}"/>
+    <hyperlink ref="L52" r:id="rId69" xr:uid="{81C65834-9982-4704-89E5-D9CBFA26456C}"/>
+    <hyperlink ref="M52" r:id="rId70" xr:uid="{58AA9D32-103A-45E6-AD42-1019FE3A6BA7}"/>
+    <hyperlink ref="L53" r:id="rId71" xr:uid="{036B97F8-9010-4273-9F4E-13C81DDC68EC}"/>
+    <hyperlink ref="M22" r:id="rId72" xr:uid="{674B1BD2-02D6-4709-9199-6A136961FBC2}"/>
+    <hyperlink ref="L28" r:id="rId73" xr:uid="{7868DD80-DC98-4029-8D3D-F417F3407162}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2265625" defaultRowHeight="14.75"/>
